--- a/medicine/Psychotrope/Erbaluce_di_Caluso_passito_liquoroso/Erbaluce_di_Caluso_passito_liquoroso.xlsx
+++ b/medicine/Psychotrope/Erbaluce_di_Caluso_passito_liquoroso/Erbaluce_di_Caluso_passito_liquoroso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Erbaluce di Caluso passito liquoroso est un vin italien à base de raisins passerilé de la région Piémont doté d'une appellation DOC depuis le 16 juillet 1974. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province de Turin, province de Verceil et en province de Biella dans les communes de Caluso, Agliè, Azeglio, Bairo, Barone Canavese, Bollengo, Borgomasino, Burolo, Candia Canavese, Caravino, Cossano Canavese, Cuceglio, Ivrée, Maglione, Mazzè, Mercenasco, Montalenghe, Orio Canavese, Romano Canavese, Palazzo Canavese, Parella, Perosa Canavese, Piverone, Scarmagno, Settimo Rottaro, San Giorgio Canavese, San Martino Canavese, Strambino, Vestignè, Vialfrè, Villareggia, Vische, Moncrivello, Roppolo, Viverone et Zimone.  
@@ -514,7 +526,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : du jaune or à l’ambré foncé
 odeur : délicat, caractéristique
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,7 +618,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
